--- a/_static/global/rankrankings/workers_rank_mat_male.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat_male.xlsx
@@ -52,13 +52,13 @@
     <t>Drew</t>
   </si>
   <si>
+    <t>Brennan</t>
+  </si>
+  <si>
+    <t>Jamarii</t>
+  </si>
+  <si>
     <t>Matthew</t>
-  </si>
-  <si>
-    <t>Brennan</t>
-  </si>
-  <si>
-    <t>Jamarii</t>
   </si>
   <si>
     <t>Myles</t>
@@ -480,7 +480,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>14.13193457363825</v>
+        <v>14.2745467615059</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -503,7 +503,7 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>13.24852036377619</v>
+        <v>13.07194186949775</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -526,7 +526,7 @@
         <v>18</v>
       </c>
       <c r="E4">
-        <v>8.019993989997438</v>
+        <v>8.189927172263737</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -549,7 +549,7 @@
         <v>18</v>
       </c>
       <c r="E5">
-        <v>7.17488654104628</v>
+        <v>7.39607034879652</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -572,7 +572,7 @@
         <v>18</v>
       </c>
       <c r="E6">
-        <v>6.126027957762686</v>
+        <v>6.323612713011084</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -595,7 +595,7 @@
         <v>18</v>
       </c>
       <c r="E7">
-        <v>6.047255851061288</v>
+        <v>6.252130279629233</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -609,7 +609,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -618,7 +618,7 @@
         <v>18</v>
       </c>
       <c r="E8">
-        <v>5.369492967572572</v>
+        <v>5.331365905335693</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
@@ -632,7 +632,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -641,10 +641,10 @@
         <v>18</v>
       </c>
       <c r="E9">
-        <v>5.165260742633402</v>
+        <v>5.299930968965304</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -655,7 +655,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -664,10 +664,10 @@
         <v>18</v>
       </c>
       <c r="E10">
-        <v>5.046126320341567</v>
+        <v>5.024612660958182</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -687,7 +687,7 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>3.453319444307983</v>
+        <v>3.207723512647401</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
@@ -710,7 +710,7 @@
         <v>18</v>
       </c>
       <c r="E12">
-        <v>1.138808340842022</v>
+        <v>1.345698146888841</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -733,7 +733,7 @@
         <v>18</v>
       </c>
       <c r="E13">
-        <v>0.1517588624201327</v>
+        <v>0.1471275131748038</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>

--- a/_static/global/rankrankings/workers_rank_mat_male.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat_male.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>index</t>
   </si>
   <si>
+    <t>prolificid</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -34,6 +37,42 @@
     <t>mat_rank</t>
   </si>
   <si>
+    <t>5e2522d6b734b47915f88275</t>
+  </si>
+  <si>
+    <t>601d69a993d94008fb2b25dc</t>
+  </si>
+  <si>
+    <t>60db4fde6193c50664c9c478</t>
+  </si>
+  <si>
+    <t>5dd671942b033b5ec8bc97b4</t>
+  </si>
+  <si>
+    <t>5ff8ad350d084e10f500e48a</t>
+  </si>
+  <si>
+    <t>60b83826821417f8e484a207</t>
+  </si>
+  <si>
+    <t>60b322994d0b901954690036</t>
+  </si>
+  <si>
+    <t>60bf9943e4e04642d4634ecc</t>
+  </si>
+  <si>
+    <t>60c2341fe95d71ee52c043f0</t>
+  </si>
+  <si>
+    <t>60b091ed11ccda59e3fc7761</t>
+  </si>
+  <si>
+    <t>6088fc724afd5c008db33e9d</t>
+  </si>
+  <si>
+    <t>6097b95056caf5ebb2720002</t>
+  </si>
+  <si>
     <t>Corey</t>
   </si>
   <si>
@@ -46,10 +85,10 @@
     <t>Juan</t>
   </si>
   <si>
+    <t>Drew</t>
+  </si>
+  <si>
     <t>Eli</t>
-  </si>
-  <si>
-    <t>Drew</t>
   </si>
   <si>
     <t>Brennan</t>
@@ -440,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,8 +504,11 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -474,22 +516,25 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>14.2745467615059</v>
-      </c>
-      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="G2">
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2">
+        <v>14.40027434213815</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -497,22 +542,25 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>13.07194186949775</v>
-      </c>
-      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="G3">
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3">
+        <v>13.3019045588994</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -520,22 +568,25 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>8.189927172263737</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4">
+        <v>8.361239919308625</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -543,68 +594,77 @@
         <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>7.39607034879652</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5">
+        <v>7.001638653657909</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6">
-        <v>6.323612713011084</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6">
+        <v>6.38247157770629</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>6.252130279629233</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7">
+        <v>6.166501710522055</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -612,22 +672,25 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <v>5.331365905335693</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8">
+        <v>5.482491394747845</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -635,22 +698,25 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>5.299930968965304</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9">
+        <v>5.47701608724167</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -658,22 +724,25 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>5.024612660958182</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10">
+        <v>5.11301045113269</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -681,22 +750,25 @@
         <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11">
-        <v>3.207723512647401</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11">
+        <v>3.317147241751798</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -704,22 +776,25 @@
         <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12">
-        <v>1.345698146888841</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12">
+        <v>1.019206744813832</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -727,18 +802,21 @@
         <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <v>0.1471275131748038</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13">
+        <v>0.2975636940466398</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13">
         <v>12</v>
       </c>
     </row>

--- a/_static/global/rankrankings/workers_rank_mat_male.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat_male.xlsx
@@ -55,12 +55,12 @@
     <t>60b83826821417f8e484a207</t>
   </si>
   <si>
+    <t>60bf9943e4e04642d4634ecc</t>
+  </si>
+  <si>
     <t>60b322994d0b901954690036</t>
   </si>
   <si>
-    <t>60bf9943e4e04642d4634ecc</t>
-  </si>
-  <si>
     <t>60c2341fe95d71ee52c043f0</t>
   </si>
   <si>
@@ -91,10 +91,10 @@
     <t>Eli</t>
   </si>
   <si>
+    <t>Jamarii</t>
+  </si>
+  <si>
     <t>Brennan</t>
-  </si>
-  <si>
-    <t>Jamarii</t>
   </si>
   <si>
     <t>Matthew</t>
@@ -525,7 +525,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>14.40027434213815</v>
+        <v>14.11239547175637</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -551,7 +551,7 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>13.3019045588994</v>
+        <v>13.09487473480318</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -577,7 +577,7 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>8.361239919308625</v>
+        <v>8.22111200880744</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -603,7 +603,7 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>7.001638653657909</v>
+        <v>7.429121582096163</v>
       </c>
       <c r="G5" t="s">
         <v>34</v>
@@ -629,7 +629,7 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>6.38247157770629</v>
+        <v>6.324528075904071</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -655,7 +655,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>6.166501710522055</v>
+        <v>6.243826188088984</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
@@ -669,7 +669,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -681,10 +681,10 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>5.482491394747845</v>
+        <v>5.27722767756892</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -695,7 +695,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -707,10 +707,10 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>5.47701608724167</v>
+        <v>5.186042016282854</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -733,7 +733,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>5.11301045113269</v>
+        <v>5.141087836715284</v>
       </c>
       <c r="G10" t="s">
         <v>32</v>
@@ -759,7 +759,7 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>3.317147241751798</v>
+        <v>3.417079858592328</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -785,7 +785,7 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>1.019206744813832</v>
+        <v>1.153463192899035</v>
       </c>
       <c r="G12" t="s">
         <v>35</v>
@@ -811,7 +811,7 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>0.2975636940466398</v>
+        <v>0.3269558257719956</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>

--- a/_static/global/rankrankings/workers_rank_mat_male.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat_male.xlsx
@@ -55,15 +55,15 @@
     <t>60b83826821417f8e484a207</t>
   </si>
   <si>
+    <t>60c2341fe95d71ee52c043f0</t>
+  </si>
+  <si>
     <t>60bf9943e4e04642d4634ecc</t>
   </si>
   <si>
     <t>60b322994d0b901954690036</t>
   </si>
   <si>
-    <t>60c2341fe95d71ee52c043f0</t>
-  </si>
-  <si>
     <t>60b091ed11ccda59e3fc7761</t>
   </si>
   <si>
@@ -91,13 +91,13 @@
     <t>Eli</t>
   </si>
   <si>
+    <t>Matthew</t>
+  </si>
+  <si>
     <t>Jamarii</t>
   </si>
   <si>
     <t>Brennan</t>
-  </si>
-  <si>
-    <t>Matthew</t>
   </si>
   <si>
     <t>Myles</t>
@@ -525,7 +525,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>14.11239547175637</v>
+        <v>14.35604799398173</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -551,7 +551,7 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>13.09487473480318</v>
+        <v>13.17756464437572</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -577,7 +577,7 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>8.22111200880744</v>
+        <v>8.158367614863963</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -603,7 +603,7 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>7.429121582096163</v>
+        <v>7.132419507397405</v>
       </c>
       <c r="G5" t="s">
         <v>34</v>
@@ -629,7 +629,7 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>6.324528075904071</v>
+        <v>6.306267974076017</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -655,7 +655,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>6.243826188088984</v>
+        <v>6.305467982787811</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
@@ -669,7 +669,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -681,10 +681,10 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>5.27722767756892</v>
+        <v>5.443833869706829</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -695,7 +695,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -707,10 +707,10 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>5.186042016282854</v>
+        <v>5.210446373867417</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -721,7 +721,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -733,7 +733,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>5.141087836715284</v>
+        <v>5.049269166493271</v>
       </c>
       <c r="G10" t="s">
         <v>32</v>
@@ -759,7 +759,7 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>3.417079858592328</v>
+        <v>3.295791998891051</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -785,7 +785,7 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>1.153463192899035</v>
+        <v>1.043195326962711</v>
       </c>
       <c r="G12" t="s">
         <v>35</v>
@@ -811,7 +811,7 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>0.3269558257719956</v>
+        <v>0.2516358054655306</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>

--- a/_static/global/rankrankings/workers_rank_mat_male.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat_male.xlsx
@@ -58,12 +58,12 @@
     <t>60c2341fe95d71ee52c043f0</t>
   </si>
   <si>
+    <t>60b322994d0b901954690036</t>
+  </si>
+  <si>
     <t>60bf9943e4e04642d4634ecc</t>
   </si>
   <si>
-    <t>60b322994d0b901954690036</t>
-  </si>
-  <si>
     <t>60b091ed11ccda59e3fc7761</t>
   </si>
   <si>
@@ -94,10 +94,10 @@
     <t>Matthew</t>
   </si>
   <si>
+    <t>Brennan</t>
+  </si>
+  <si>
     <t>Jamarii</t>
-  </si>
-  <si>
-    <t>Brennan</t>
   </si>
   <si>
     <t>Myles</t>
@@ -525,7 +525,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>14.35604799398173</v>
+        <v>14.36820170540361</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -551,7 +551,7 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>13.17756464437572</v>
+        <v>13.10445131131576</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -577,7 +577,7 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>8.158367614863963</v>
+        <v>8.165085299637123</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -603,7 +603,7 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>7.132419507397405</v>
+        <v>7.471687554102642</v>
       </c>
       <c r="G5" t="s">
         <v>34</v>
@@ -629,7 +629,7 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>6.306267974076017</v>
+        <v>6.394477316427598</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -655,7 +655,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>6.305467982787811</v>
+        <v>6.210208915507454</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
@@ -681,7 +681,7 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>5.443833869706829</v>
+        <v>5.464785281559637</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
@@ -695,7 +695,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -707,10 +707,10 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>5.210446373867417</v>
+        <v>5.311456126118004</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -721,7 +721,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -733,10 +733,10 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>5.049269166493271</v>
+        <v>5.011805588421218</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>9</v>
@@ -759,7 +759,7 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>3.295791998891051</v>
+        <v>3.497412773125043</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -785,7 +785,7 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>1.043195326962711</v>
+        <v>1.210064642988239</v>
       </c>
       <c r="G12" t="s">
         <v>35</v>
@@ -811,7 +811,7 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>0.2516358054655306</v>
+        <v>0.4333488792121737</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>

--- a/_static/global/rankrankings/workers_rank_mat_male.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat_male.xlsx
@@ -55,15 +55,15 @@
     <t>60b83826821417f8e484a207</t>
   </si>
   <si>
+    <t>60bf9943e4e04642d4634ecc</t>
+  </si>
+  <si>
     <t>60c2341fe95d71ee52c043f0</t>
   </si>
   <si>
     <t>60b322994d0b901954690036</t>
   </si>
   <si>
-    <t>60bf9943e4e04642d4634ecc</t>
-  </si>
-  <si>
     <t>60b091ed11ccda59e3fc7761</t>
   </si>
   <si>
@@ -91,13 +91,13 @@
     <t>Eli</t>
   </si>
   <si>
+    <t>Jamarii</t>
+  </si>
+  <si>
     <t>Matthew</t>
   </si>
   <si>
     <t>Brennan</t>
-  </si>
-  <si>
-    <t>Jamarii</t>
   </si>
   <si>
     <t>Myles</t>
@@ -525,7 +525,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>14.36820170540361</v>
+        <v>14.32124806351207</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -551,7 +551,7 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>13.10445131131576</v>
+        <v>13.25929927578149</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -577,7 +577,7 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>8.165085299637123</v>
+        <v>8.119568600285705</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -603,7 +603,7 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>7.471687554102642</v>
+        <v>7.411316600731239</v>
       </c>
       <c r="G5" t="s">
         <v>34</v>
@@ -629,7 +629,7 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>6.394477316427598</v>
+        <v>6.387209556654361</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -655,7 +655,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>6.210208915507454</v>
+        <v>6.159915716578424</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
@@ -669,7 +669,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -681,10 +681,10 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>5.464785281559637</v>
+        <v>5.496872041548905</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -695,7 +695,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -707,7 +707,7 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>5.311456126118004</v>
+        <v>5.269135301367183</v>
       </c>
       <c r="G9" t="s">
         <v>32</v>
@@ -721,7 +721,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -733,10 +733,10 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>5.011805588421218</v>
+        <v>5.262741384947466</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>9</v>
@@ -759,7 +759,7 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>3.497412773125043</v>
+        <v>3.214622224054206</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -785,7 +785,7 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>1.210064642988239</v>
+        <v>1.200783564827204</v>
       </c>
       <c r="G12" t="s">
         <v>35</v>
@@ -811,7 +811,7 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>0.4333488792121737</v>
+        <v>0.09961791273931464</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>

--- a/_static/global/rankrankings/workers_rank_mat_male.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat_male.xlsx
@@ -55,15 +55,15 @@
     <t>60b83826821417f8e484a207</t>
   </si>
   <si>
+    <t>60b322994d0b901954690036</t>
+  </si>
+  <si>
     <t>60bf9943e4e04642d4634ecc</t>
   </si>
   <si>
     <t>60c2341fe95d71ee52c043f0</t>
   </si>
   <si>
-    <t>60b322994d0b901954690036</t>
-  </si>
-  <si>
     <t>60b091ed11ccda59e3fc7761</t>
   </si>
   <si>
@@ -91,13 +91,13 @@
     <t>Eli</t>
   </si>
   <si>
+    <t>Brennan</t>
+  </si>
+  <si>
     <t>Jamarii</t>
   </si>
   <si>
     <t>Matthew</t>
-  </si>
-  <si>
-    <t>Brennan</t>
   </si>
   <si>
     <t>Myles</t>
@@ -525,7 +525,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>14.32124806351207</v>
+        <v>14.28972879330137</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -551,7 +551,7 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>13.25929927578149</v>
+        <v>13.42737676672315</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -577,7 +577,7 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>8.119568600285705</v>
+        <v>8.447915419544929</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -603,7 +603,7 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>7.411316600731239</v>
+        <v>7.374783189707426</v>
       </c>
       <c r="G5" t="s">
         <v>34</v>
@@ -629,7 +629,7 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>6.387209556654361</v>
+        <v>6.318117057861989</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -655,7 +655,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>6.159915716578424</v>
+        <v>6.269575784930271</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
@@ -669,7 +669,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -681,10 +681,10 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>5.496872041548905</v>
+        <v>5.377829192037456</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -695,7 +695,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -707,10 +707,10 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>5.269135301367183</v>
+        <v>5.220260424381992</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>8</v>
@@ -721,7 +721,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -733,7 +733,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>5.262741384947466</v>
+        <v>5.0041670821604</v>
       </c>
       <c r="G10" t="s">
         <v>32</v>
@@ -759,7 +759,7 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>3.214622224054206</v>
+        <v>3.086411040790361</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -785,7 +785,7 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>1.200783564827204</v>
+        <v>1.224224424130261</v>
       </c>
       <c r="G12" t="s">
         <v>35</v>
@@ -811,7 +811,7 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>0.09961791273931464</v>
+        <v>0.3847272879396543</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>

--- a/_static/global/rankrankings/workers_rank_mat_male.xlsx
+++ b/_static/global/rankrankings/workers_rank_mat_male.xlsx
@@ -55,15 +55,15 @@
     <t>60b83826821417f8e484a207</t>
   </si>
   <si>
+    <t>60c2341fe95d71ee52c043f0</t>
+  </si>
+  <si>
+    <t>60bf9943e4e04642d4634ecc</t>
+  </si>
+  <si>
     <t>60b322994d0b901954690036</t>
   </si>
   <si>
-    <t>60bf9943e4e04642d4634ecc</t>
-  </si>
-  <si>
-    <t>60c2341fe95d71ee52c043f0</t>
-  </si>
-  <si>
     <t>60b091ed11ccda59e3fc7761</t>
   </si>
   <si>
@@ -91,13 +91,13 @@
     <t>Eli</t>
   </si>
   <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>Jamarii</t>
+  </si>
+  <si>
     <t>Brennan</t>
-  </si>
-  <si>
-    <t>Jamarii</t>
-  </si>
-  <si>
-    <t>Matthew</t>
   </si>
   <si>
     <t>Myles</t>
@@ -525,7 +525,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>14.28972879330137</v>
+        <v>14.05975573019277</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -551,7 +551,7 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>13.42737676672315</v>
+        <v>13.41550138134623</v>
       </c>
       <c r="G3" t="s">
         <v>33</v>
@@ -577,7 +577,7 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>8.447915419544929</v>
+        <v>8.181554504685575</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -603,7 +603,7 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>7.374783189707426</v>
+        <v>7.30177575321389</v>
       </c>
       <c r="G5" t="s">
         <v>34</v>
@@ -629,7 +629,7 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>6.318117057861989</v>
+        <v>6.131829617003306</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -655,7 +655,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>6.269575784930271</v>
+        <v>6.099594868436506</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
@@ -669,7 +669,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -681,7 +681,7 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>5.377829192037456</v>
+        <v>5.341581989200936</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
@@ -707,7 +707,7 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>5.220260424381992</v>
+        <v>5.208368924262405</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -721,7 +721,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -733,7 +733,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>5.0041670821604</v>
+        <v>5.005040994217331</v>
       </c>
       <c r="G10" t="s">
         <v>32</v>
@@ -759,7 +759,7 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>3.086411040790361</v>
+        <v>3.29376936484773</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -785,7 +785,7 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>1.224224424130261</v>
+        <v>1.454546036457973</v>
       </c>
       <c r="G12" t="s">
         <v>35</v>
@@ -811,7 +811,7 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>0.3847272879396543</v>
+        <v>0.1921100033886667</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>
